--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed5/result_data_KNN.xlsx
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.138</v>
+        <v>-7.203</v>
       </c>
     </row>
     <row r="13">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.942</v>
+        <v>-7.843999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.184</v>
+        <v>-7.381</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.086</v>
+        <v>-7.797000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.846000000000001</v>
+        <v>-7.771999999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.75</v>
+        <v>-8.156000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.190000000000001</v>
+        <v>-7.994999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.028</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.233999999999998</v>
+        <v>-8.321</v>
       </c>
     </row>
     <row r="57">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.895999999999999</v>
+        <v>-7.557</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.715999999999999</v>
+        <v>-7.737</v>
       </c>
     </row>
     <row r="70">
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.488</v>
+        <v>-7.398000000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.355999999999998</v>
+        <v>-8.038999999999998</v>
       </c>
     </row>
     <row r="84">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.218</v>
+        <v>-8.245999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.078</v>
+        <v>-7.636</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.176</v>
+        <v>-7.007000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.472</v>
+        <v>-8.074999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.638</v>
+        <v>-7.806999999999999</v>
       </c>
     </row>
     <row r="105">
